--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -20,9 +20,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -62,12 +64,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -433,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,6 +941,1176 @@
         </is>
       </c>
       <c r="P9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfphrgNr/</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfphrgNr/</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/826766596663413/</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/826766596663413/</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>7</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/826766643330075/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/826766643330075/</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>En la boca</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-12-01T01:46:16.000Z</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="n">
+        <v>45992.0737962963</v>
+      </c>
+      <c r="I12" s="3" t="n">
+        <v>45992</v>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>01:46:16</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100079902391384/posts/826766643330075/', 'commentUrl': 'https://www.facebook.com/reel/4346723852317744/?comment_id=2658403817853771', 'id': 'Y29tbWVudDo4MjY3NjcwODMzMzAwMzFfMjY1ODQwMzgxNzg1Mzc3MQ==', 'feedbackId': 'ZmVlZGJhY2s6ODI2NzY3MDgzMzMwMDMxXzI2NTg0MDM4MTc4NTM3NzE=', 'date': '2025-12-01T01:46:16.000Z', 'text': 'En la boca', 'profileUrl': 'https://www.facebook.com/nely.benavides.2025', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t1.304</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>7</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/826766643330075/</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/826766643330075/</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>lo acedto 777</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-11-30T01:53:22.000Z</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="n">
+        <v>45991.07872685185</v>
+      </c>
+      <c r="I13" s="3" t="n">
+        <v>45991</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>01:53:22</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100079902391384/posts/826766643330075/', 'commentUrl': 'https://www.facebook.com/reel/4346723852317744/?comment_id=1149258803961128', 'id': 'Y29tbWVudDo4MjY3NjcwODMzMzAwMzFfMTE0OTI1ODgwMzk2MTEyOA==', 'feedbackId': 'ZmVlZGJhY2s6ODI2NzY3MDgzMzMwMDMxXzExNDkyNTg4MDM5NjExMjg=', 'date': '2025-11-30T01:53:22.000Z', 'text': 'lo acedto 777', 'profileUrl': 'https://www.facebook.com/sandraconsuelo.lesmes', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/826766643330075/</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/826766643330075/</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>gracias señor Jesus</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-11-29T00:03:45.000Z</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="n">
+        <v>45990.00260416666</v>
+      </c>
+      <c r="I14" s="3" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>00:03:45</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100079902391384/posts/826766643330075/', 'commentUrl': 'https://www.facebook.com/reel/4346723852317744/?comment_id=1214157964143785', 'id': 'Y29tbWVudDo4MjY3NjcwODMzMzAwMzFfMTIxNDE1Nzk2NDE0Mzc4NQ==', 'feedbackId': 'ZmVlZGJhY2s6ODI2NzY3MDgzMzMwMDMxXzEyMTQxNTc5NjQxNDM3ODU=', 'date': '2025-11-29T00:03:45.000Z', 'text': 'gracias señor Jesus', 'profileUrl': 'https://www.facebook.com/jorge.bolivaralvarado.9', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/826766643330075/</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/826766643330075/</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Avena Torres Gómez, es mejor que la avena Alpina que trae muchos conservantes.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-11-25T16:18:41.000Z</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="n">
+        <v>45986.6796412037</v>
+      </c>
+      <c r="I15" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>16:18:41</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100079902391384/posts/826766643330075/', 'commentUrl': 'https://www.facebook.com/reel/4346723852317744/?comment_id=1210779501117140', 'id': 'Y29tbWVudDo4MjY3NjcwODMzMzAwMzFfMTIxMDc3OTUwMTExNzE0MA==', 'feedbackId': 'ZmVlZGJhY2s6ODI2NzY3MDgzMzMwMDMxXzEyMTA3Nzk1MDExMTcxNDA=', 'date': '2025-11-25T16:18:41.000Z', 'text': 'Avena Torres Gómez, es mejor que la avena Alpina que trae muchos conservantes.', 'profileUrl': 'https://www.facebook.com/carlos.arturo.torr</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>7</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/826766643330075/</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/826766643330075/</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Huy qué rica 🤤😋 combinación.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-11-23T03:50:16.000Z</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="n">
+        <v>45984.1599074074</v>
+      </c>
+      <c r="I16" s="3" t="n">
+        <v>45984</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>03:50:16</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100079902391384/posts/826766643330075/', 'commentUrl': 'https://www.facebook.com/reel/4346723852317744/?comment_id=1183103517132073', 'id': 'Y29tbWVudDo4MjY3NjcwODMzMzAwMzFfMTE4MzEwMzUxNzEzMjA3Mw==', 'feedbackId': 'ZmVlZGJhY2s6ODI2NzY3MDgzMzMwMDMxXzExODMxMDM1MTcxMzIwNzM=', 'date': '2025-11-23T03:50:16.000Z', 'text': 'Huy qué rica 🤤😋 combinación.', 'profileUrl': 'https://www.facebook.com/patricia.marin.79827', 'profilePicture': 'https://scontent-hou1-1.xx</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/826766643330075/</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/826766643330075/</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Bajen le el azúcar y sabrá mejor</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-11-22T02:15:07.000Z</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>45983.09383101852</v>
+      </c>
+      <c r="I17" s="3" t="n">
+        <v>45983</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>02:15:07</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100079902391384/posts/826766643330075/', 'commentUrl': 'https://www.facebook.com/reel/4346723852317744/?comment_id=1617595822565103', 'id': 'Y29tbWVudDo4MjY3NjcwODMzMzAwMzFfMTYxNzU5NTgyMjU2NTEwMw==', 'feedbackId': 'ZmVlZGJhY2s6ODI2NzY3MDgzMzMwMDMxXzE2MTc1OTU4MjI1NjUxMDM=', 'date': '2025-11-22T02:15:07.000Z', 'text': 'Bajen le el azúcar y sabrá mejor', 'profileUrl': 'https://www.facebook.com/victoria.sanchez.5208', 'profilePicture': 'https://scontent-hou1</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>7</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/826766643330075/</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/826766643330075/</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Demasiado  dulce</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-11-20T23:31:56.000Z</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="n">
+        <v>45981.98050925926</v>
+      </c>
+      <c r="I18" s="3" t="n">
+        <v>45981</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>23:31:56</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100079902391384/posts/826766643330075/', 'commentUrl': 'https://www.facebook.com/reel/4346723852317744/?comment_id=1427083035511158', 'id': 'Y29tbWVudDo4MjY3NjcwODMzMzAwMzFfMTQyNzA4MzAzNTUxMTE1OA==', 'feedbackId': 'ZmVlZGJhY2s6ODI2NzY3MDgzMzMwMDMxXzE0MjcwODMwMzU1MTExNTg=', 'date': '2025-11-20T23:31:56.000Z', 'text': 'Demasiado  dulce', 'profileUrl': 'https://www.facebook.com/yaneth.pena.18062', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t3</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>7</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/826766643330075/</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/826766643330075/</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>me encanta</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-11-19T00:33:55.000Z</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="n">
+        <v>45980.02355324074</v>
+      </c>
+      <c r="I19" s="3" t="n">
+        <v>45980</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>00:33:55</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100079902391384/posts/826766643330075/', 'commentUrl': 'https://www.facebook.com/reel/4346723852317744/?comment_id=1732204860792364', 'id': 'Y29tbWVudDo4MjY3NjcwODMzMzAwMzFfMTczMjIwNDg2MDc5MjM2NA==', 'feedbackId': 'ZmVlZGJhY2s6ODI2NzY3MDgzMzMwMDMxXzE3MzIyMDQ4NjA3OTIzNjQ=', 'date': '2025-11-19T00:33:55.000Z', 'text': 'me encanta', 'profileUrl': 'https://www.facebook.com/luz.diaz.774995', 'profilePicture': 'https://scontent-hou1-1.xx.fbcdn.net/v/t39.30808-</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>8</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/827634196576653/</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/827634196576653/</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>9</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/pfbid02fD7Na38R3kdtAiEAiBoJ1Lkwpjp9tvdqCHpLgjNXQfQEkWzBriBD4mZ8rjH6Gfcwl/</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/pfbid02fD7Na38R3kdtAiEAiBoJ1Lkwpjp9tvdqCHpLgjNXQfQEkWzBriBD4mZ8rjH6Gfcwl/</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>En la boca</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-12-01T01:46:16.000Z</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="n">
+        <v>45992.0737962963</v>
+      </c>
+      <c r="I21" s="3" t="n">
+        <v>45992</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>01:46:16</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100079902391384/posts/pfbid02fD7Na38R3kdtAiEAiBoJ1Lkwpjp9tvdqCHpLgjNXQfQEkWzBriBD4mZ8rjH6Gfcwl/', 'commentUrl': 'https://www.facebook.com/reel/4346723852317744/?comment_id=2658403817853771', 'id': 'Y29tbWVudDo4MjY3NjcwODMzMzAwMzFfMjY1ODQwMzgxNzg1Mzc3MQ==', 'feedbackId': 'ZmVlZGJhY2s6ODI2NzY3MDgzMzMwMDMxXzI2NTg0MDM4MTc4NTM3NzE=', 'date': '2025-12-01T01:46:16.000Z', 'text': 'En la boca', 'profileUrl': 'https://www.facebook.com/nely.benavides.2025', 'profil</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>9</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/pfbid02fD7Na38R3kdtAiEAiBoJ1Lkwpjp9tvdqCHpLgjNXQfQEkWzBriBD4mZ8rjH6Gfcwl/</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/pfbid02fD7Na38R3kdtAiEAiBoJ1Lkwpjp9tvdqCHpLgjNXQfQEkWzBriBD4mZ8rjH6Gfcwl/</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>lo acedto 777</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-11-30T01:53:22.000Z</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>45991.07872685185</v>
+      </c>
+      <c r="I22" s="3" t="n">
+        <v>45991</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>01:53:22</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100079902391384/posts/pfbid02fD7Na38R3kdtAiEAiBoJ1Lkwpjp9tvdqCHpLgjNXQfQEkWzBriBD4mZ8rjH6Gfcwl/', 'commentUrl': 'https://www.facebook.com/reel/4346723852317744/?comment_id=1149258803961128', 'id': 'Y29tbWVudDo4MjY3NjcwODMzMzAwMzFfMTE0OTI1ODgwMzk2MTEyOA==', 'feedbackId': 'ZmVlZGJhY2s6ODI2NzY3MDgzMzMwMDMxXzExNDkyNTg4MDM5NjExMjg=', 'date': '2025-11-30T01:53:22.000Z', 'text': 'lo acedto 777', 'profileUrl': 'https://www.facebook.com/sandraconsuelo.lesmes', 'p</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>9</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/pfbid02fD7Na38R3kdtAiEAiBoJ1Lkwpjp9tvdqCHpLgjNXQfQEkWzBriBD4mZ8rjH6Gfcwl/</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/pfbid02fD7Na38R3kdtAiEAiBoJ1Lkwpjp9tvdqCHpLgjNXQfQEkWzBriBD4mZ8rjH6Gfcwl/</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>gracias señor Jesus</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-11-29T00:03:45.000Z</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="n">
+        <v>45990.00260416666</v>
+      </c>
+      <c r="I23" s="3" t="n">
+        <v>45990</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>00:03:45</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100079902391384/posts/pfbid02fD7Na38R3kdtAiEAiBoJ1Lkwpjp9tvdqCHpLgjNXQfQEkWzBriBD4mZ8rjH6Gfcwl/', 'commentUrl': 'https://www.facebook.com/reel/4346723852317744/?comment_id=1214157964143785', 'id': 'Y29tbWVudDo4MjY3NjcwODMzMzAwMzFfMTIxNDE1Nzk2NDE0Mzc4NQ==', 'feedbackId': 'ZmVlZGJhY2s6ODI2NzY3MDgzMzMwMDMxXzEyMTQxNTc5NjQxNDM3ODU=', 'date': '2025-11-29T00:03:45.000Z', 'text': 'gracias señor Jesus', 'profileUrl': 'https://www.facebook.com/jorge.bolivaralvarad</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>9</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/pfbid02fD7Na38R3kdtAiEAiBoJ1Lkwpjp9tvdqCHpLgjNXQfQEkWzBriBD4mZ8rjH6Gfcwl/</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/pfbid02fD7Na38R3kdtAiEAiBoJ1Lkwpjp9tvdqCHpLgjNXQfQEkWzBriBD4mZ8rjH6Gfcwl/</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Avena Torres Gómez, es mejor que la avena Alpina que trae muchos conservantes.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-11-25T16:18:41.000Z</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="n">
+        <v>45986.6796412037</v>
+      </c>
+      <c r="I24" s="3" t="n">
+        <v>45986</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>16:18:41</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100079902391384/posts/pfbid02fD7Na38R3kdtAiEAiBoJ1Lkwpjp9tvdqCHpLgjNXQfQEkWzBriBD4mZ8rjH6Gfcwl/', 'commentUrl': 'https://www.facebook.com/reel/4346723852317744/?comment_id=1210779501117140', 'id': 'Y29tbWVudDo4MjY3NjcwODMzMzAwMzFfMTIxMDc3OTUwMTExNzE0MA==', 'feedbackId': 'ZmVlZGJhY2s6ODI2NzY3MDgzMzMwMDMxXzEyMTA3Nzk1MDExMTcxNDA=', 'date': '2025-11-25T16:18:41.000Z', 'text': 'Avena Torres Gómez, es mejor que la avena Alpina que trae muchos conservantes.', '</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>9</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/pfbid02fD7Na38R3kdtAiEAiBoJ1Lkwpjp9tvdqCHpLgjNXQfQEkWzBriBD4mZ8rjH6Gfcwl/</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/pfbid02fD7Na38R3kdtAiEAiBoJ1Lkwpjp9tvdqCHpLgjNXQfQEkWzBriBD4mZ8rjH6Gfcwl/</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Huy qué rica 🤤😋 combinación.</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-11-23T03:50:16.000Z</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="n">
+        <v>45984.1599074074</v>
+      </c>
+      <c r="I25" s="3" t="n">
+        <v>45984</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>03:50:16</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100079902391384/posts/pfbid02fD7Na38R3kdtAiEAiBoJ1Lkwpjp9tvdqCHpLgjNXQfQEkWzBriBD4mZ8rjH6Gfcwl/', 'commentUrl': 'https://www.facebook.com/reel/4346723852317744/?comment_id=1183103517132073', 'id': 'Y29tbWVudDo4MjY3NjcwODMzMzAwMzFfMTE4MzEwMzUxNzEzMjA3Mw==', 'feedbackId': 'ZmVlZGJhY2s6ODI2NzY3MDgzMzMwMDMxXzExODMxMDM1MTcxMzIwNzM=', 'date': '2025-11-23T03:50:16.000Z', 'text': 'Huy qué rica 🤤😋 combinación.', 'profileUrl': 'https://www.facebook.com/patricia.ma</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>9</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/pfbid02fD7Na38R3kdtAiEAiBoJ1Lkwpjp9tvdqCHpLgjNXQfQEkWzBriBD4mZ8rjH6Gfcwl/</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/pfbid02fD7Na38R3kdtAiEAiBoJ1Lkwpjp9tvdqCHpLgjNXQfQEkWzBriBD4mZ8rjH6Gfcwl/</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bajen le el azúcar y sabrá mejor</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-11-22T02:15:07.000Z</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="n">
+        <v>45983.09383101852</v>
+      </c>
+      <c r="I26" s="3" t="n">
+        <v>45983</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>02:15:07</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100079902391384/posts/pfbid02fD7Na38R3kdtAiEAiBoJ1Lkwpjp9tvdqCHpLgjNXQfQEkWzBriBD4mZ8rjH6Gfcwl/', 'commentUrl': 'https://www.facebook.com/reel/4346723852317744/?comment_id=1617595822565103', 'id': 'Y29tbWVudDo4MjY3NjcwODMzMzAwMzFfMTYxNzU5NTgyMjU2NTEwMw==', 'feedbackId': 'ZmVlZGJhY2s6ODI2NzY3MDgzMzMwMDMxXzE2MTc1OTU4MjI1NjUxMDM=', 'date': '2025-11-22T02:15:07.000Z', 'text': 'Bajen le el azúcar y sabrá mejor', 'profileUrl': 'https://www.facebook.com/victori</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>9</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/pfbid02fD7Na38R3kdtAiEAiBoJ1Lkwpjp9tvdqCHpLgjNXQfQEkWzBriBD4mZ8rjH6Gfcwl/</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/pfbid02fD7Na38R3kdtAiEAiBoJ1Lkwpjp9tvdqCHpLgjNXQfQEkWzBriBD4mZ8rjH6Gfcwl/</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Demasiado  dulce</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-11-20T23:31:56.000Z</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="n">
+        <v>45981.98050925926</v>
+      </c>
+      <c r="I27" s="3" t="n">
+        <v>45981</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>23:31:56</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100079902391384/posts/pfbid02fD7Na38R3kdtAiEAiBoJ1Lkwpjp9tvdqCHpLgjNXQfQEkWzBriBD4mZ8rjH6Gfcwl/', 'commentUrl': 'https://www.facebook.com/reel/4346723852317744/?comment_id=1427083035511158', 'id': 'Y29tbWVudDo4MjY3NjcwODMzMzAwMzFfMTQyNzA4MzAzNTUxMTE1OA==', 'feedbackId': 'ZmVlZGJhY2s6ODI2NzY3MDgzMzMwMDMxXzE0MjcwODMwMzU1MTExNTg=', 'date': '2025-11-20T23:31:56.000Z', 'text': 'Demasiado  dulce', 'profileUrl': 'https://www.facebook.com/yaneth.pena.18062', 'pr</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>9</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/pfbid02fD7Na38R3kdtAiEAiBoJ1Lkwpjp9tvdqCHpLgjNXQfQEkWzBriBD4mZ8rjH6Gfcwl/</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/pfbid02fD7Na38R3kdtAiEAiBoJ1Lkwpjp9tvdqCHpLgjNXQfQEkWzBriBD4mZ8rjH6Gfcwl/</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>me encanta</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2025-11-19T00:33:55.000Z</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="n">
+        <v>45980.02355324074</v>
+      </c>
+      <c r="I28" s="3" t="n">
+        <v>45980</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>00:33:55</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>{'facebookUrl': 'https://www.facebook.com/100079902391384/posts/pfbid02fD7Na38R3kdtAiEAiBoJ1Lkwpjp9tvdqCHpLgjNXQfQEkWzBriBD4mZ8rjH6Gfcwl/', 'commentUrl': 'https://www.facebook.com/reel/4346723852317744/?comment_id=1732204860792364', 'id': 'Y29tbWVudDo4MjY3NjcwODMzMzAwMzFfMTczMjIwNDg2MDc5MjM2NA==', 'feedbackId': 'ZmVlZGJhY2s6ODI2NzY3MDgzMzMwMDMxXzE3MzIyMDQ4NjA3OTIzNjQ=', 'date': '2025-11-19T00:33:55.000Z', 'text': 'me encanta', 'profileUrl': 'https://www.facebook.com/luz.diaz.774995', 'profilePic</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>10</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRQKPruAEuJ/</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRQKPruAEuJ/</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>11</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRNHWpCgOAZ/</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRNHWpCgOAZ/</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>FAILED</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -950,7 +2123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1090,6 +2263,175 @@
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TikTok</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>https://vt.tiktok.com/ZSfphrgNr/</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/826766596663413/</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/826766643330075/</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>8</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>45980.02355324074</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>45992.0737962963</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/827634196576653/</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Facebook</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>https://www.facebook.com/100079902391384/posts/pfbid02fD7Na38R3kdtAiEAiBoJ1Lkwpjp9tvdqCHpLgjNXQfQEkWzBriBD4mZ8rjH6Gfcwl/</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>8</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>45980.02355324074</v>
+      </c>
+      <c r="G10" s="2" t="n">
+        <v>45992.0737962963</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRQKPruAEuJ/</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Instagram</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRNHWpCgOAZ/</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1144,10 +2486,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1167,7 +2509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1190,7 +2532,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>https://www.facebook.com/100079902391384/posts/826766596663413/?dco_ad_token=AaqVSVJ-r5DrPBtJEFMeZAREHMEbItW2I7Ec_sbTCKvhv7M8-7SNtubu3r_qcS6TY86OuIuR3XvlYZq-&amp;dco_ad_id=120235061712850497</t>
+          <t>https://vt.tiktok.com/ZSfphrgNr/</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1202,7 +2544,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRQKPruAEuJ/#advertiser</t>
+          <t>https://www.facebook.com/100079902391384/posts/826766596663413/</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1214,10 +2556,34 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/p/DRNHWpCgOAZ/#advertiser</t>
+          <t>https://www.facebook.com/100079902391384/posts/827634196576653/</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRQKPruAEuJ/</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FAILED_ALL_ATTEMPTS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/DRNHWpCgOAZ/</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>FAILED_ALL_ATTEMPTS</t>
         </is>
@@ -1271,19 +2637,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Comentarios Campaña.xlsx
+++ b/Comentarios Campaña.xlsx
@@ -20,11 +20,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-    <numFmt numFmtId="166" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="167" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -64,13 +62,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -1059,7 +1056,7 @@
       <c r="H12" s="2" t="n">
         <v>45992.0737962963</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="2" t="n">
         <v>45992</v>
       </c>
       <c r="J12" t="inlineStr">
@@ -1067,10 +1064,8 @@
           <t>01:46:16</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K12" t="n">
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1119,7 +1114,7 @@
       <c r="H13" s="2" t="n">
         <v>45991.07872685185</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="2" t="n">
         <v>45991</v>
       </c>
       <c r="J13" t="inlineStr">
@@ -1127,10 +1122,8 @@
           <t>01:53:22</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K13" t="n">
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1179,7 +1172,7 @@
       <c r="H14" s="2" t="n">
         <v>45990.00260416666</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J14" t="inlineStr">
@@ -1187,10 +1180,8 @@
           <t>00:03:45</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K14" t="n">
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -1239,7 +1230,7 @@
       <c r="H15" s="2" t="n">
         <v>45986.6796412037</v>
       </c>
-      <c r="I15" s="3" t="n">
+      <c r="I15" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J15" t="inlineStr">
@@ -1247,10 +1238,8 @@
           <t>16:18:41</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K15" t="n">
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -1299,7 +1288,7 @@
       <c r="H16" s="2" t="n">
         <v>45984.1599074074</v>
       </c>
-      <c r="I16" s="3" t="n">
+      <c r="I16" s="2" t="n">
         <v>45984</v>
       </c>
       <c r="J16" t="inlineStr">
@@ -1307,10 +1296,8 @@
           <t>03:50:16</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K16" t="n">
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1359,7 +1346,7 @@
       <c r="H17" s="2" t="n">
         <v>45983.09383101852</v>
       </c>
-      <c r="I17" s="3" t="n">
+      <c r="I17" s="2" t="n">
         <v>45983</v>
       </c>
       <c r="J17" t="inlineStr">
@@ -1367,10 +1354,8 @@
           <t>02:15:07</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K17" t="n">
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -1419,7 +1404,7 @@
       <c r="H18" s="2" t="n">
         <v>45981.98050925926</v>
       </c>
-      <c r="I18" s="3" t="n">
+      <c r="I18" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J18" t="inlineStr">
@@ -1427,10 +1412,8 @@
           <t>23:31:56</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K18" t="n">
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1479,7 +1462,7 @@
       <c r="H19" s="2" t="n">
         <v>45980.02355324074</v>
       </c>
-      <c r="I19" s="3" t="n">
+      <c r="I19" s="2" t="n">
         <v>45980</v>
       </c>
       <c r="J19" t="inlineStr">
@@ -1487,10 +1470,8 @@
           <t>00:33:55</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K19" t="n">
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -1581,7 +1562,7 @@
       <c r="H21" s="2" t="n">
         <v>45992.0737962963</v>
       </c>
-      <c r="I21" s="3" t="n">
+      <c r="I21" s="2" t="n">
         <v>45992</v>
       </c>
       <c r="J21" t="inlineStr">
@@ -1589,10 +1570,8 @@
           <t>01:46:16</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K21" t="n">
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -1641,7 +1620,7 @@
       <c r="H22" s="2" t="n">
         <v>45991.07872685185</v>
       </c>
-      <c r="I22" s="3" t="n">
+      <c r="I22" s="2" t="n">
         <v>45991</v>
       </c>
       <c r="J22" t="inlineStr">
@@ -1649,10 +1628,8 @@
           <t>01:53:22</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K22" t="n">
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -1701,7 +1678,7 @@
       <c r="H23" s="2" t="n">
         <v>45990.00260416666</v>
       </c>
-      <c r="I23" s="3" t="n">
+      <c r="I23" s="2" t="n">
         <v>45990</v>
       </c>
       <c r="J23" t="inlineStr">
@@ -1709,10 +1686,8 @@
           <t>00:03:45</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K23" t="n">
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -1761,7 +1736,7 @@
       <c r="H24" s="2" t="n">
         <v>45986.6796412037</v>
       </c>
-      <c r="I24" s="3" t="n">
+      <c r="I24" s="2" t="n">
         <v>45986</v>
       </c>
       <c r="J24" t="inlineStr">
@@ -1769,10 +1744,8 @@
           <t>16:18:41</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K24" t="n">
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -1821,7 +1794,7 @@
       <c r="H25" s="2" t="n">
         <v>45984.1599074074</v>
       </c>
-      <c r="I25" s="3" t="n">
+      <c r="I25" s="2" t="n">
         <v>45984</v>
       </c>
       <c r="J25" t="inlineStr">
@@ -1829,10 +1802,8 @@
           <t>03:50:16</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K25" t="n">
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -1881,7 +1852,7 @@
       <c r="H26" s="2" t="n">
         <v>45983.09383101852</v>
       </c>
-      <c r="I26" s="3" t="n">
+      <c r="I26" s="2" t="n">
         <v>45983</v>
       </c>
       <c r="J26" t="inlineStr">
@@ -1889,10 +1860,8 @@
           <t>02:15:07</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K26" t="n">
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -1941,7 +1910,7 @@
       <c r="H27" s="2" t="n">
         <v>45981.98050925926</v>
       </c>
-      <c r="I27" s="3" t="n">
+      <c r="I27" s="2" t="n">
         <v>45981</v>
       </c>
       <c r="J27" t="inlineStr">
@@ -1949,10 +1918,8 @@
           <t>23:31:56</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K27" t="n">
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -2001,7 +1968,7 @@
       <c r="H28" s="2" t="n">
         <v>45980.02355324074</v>
       </c>
-      <c r="I28" s="3" t="n">
+      <c r="I28" s="2" t="n">
         <v>45980</v>
       </c>
       <c r="J28" t="inlineStr">
@@ -2009,10 +1976,8 @@
           <t>00:33:55</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K28" t="n">
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
